--- a/accb_custo_total_itabuna.xlsx
+++ b/accb_custo_total_itabuna.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\NotebooksMateriais\UESC_IC\rede_neural_previsao_ccb_produtos_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\NotebooksMateriais\previsao_cestas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B50D7E-8F94-42A8-B77D-2F42E7012ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AE9CFD-BD9A-4515-89B0-7B9F2545D442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -300,7 +300,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="E209" sqref="E209"/>
+      <selection activeCell="B214" sqref="B214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2005,8 +2005,12 @@
       </c>
     </row>
     <row r="213" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="6"/>
-      <c r="B213" s="6"/>
+      <c r="A213" s="5">
+        <v>44774</v>
+      </c>
+      <c r="B213" s="4">
+        <v>510.33</v>
+      </c>
     </row>
     <row r="214" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="6"/>

--- a/accb_custo_total_itabuna.xlsx
+++ b/accb_custo_total_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\NotebooksMateriais\previsao_cestas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57AE9CFD-BD9A-4515-89B0-7B9F2545D442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D032A8-C2CC-45EC-873B-50BEF93C6F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -300,7 +300,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="B214" sqref="B214"/>
+      <selection activeCell="B215" sqref="B215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2013,8 +2013,12 @@
       </c>
     </row>
     <row r="214" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="6"/>
-      <c r="B214" s="6"/>
+      <c r="A214" s="5">
+        <v>44805</v>
+      </c>
+      <c r="B214" s="4">
+        <v>511.45</v>
+      </c>
     </row>
     <row r="215" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="6"/>
